--- a/solicitar placa.xlsx
+++ b/solicitar placa.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\USUARIOS\JENNIFER\FORMULARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVMIMI\publica\2 COMERCIAL\FORMULÁRIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2870962-C230-4D20-9D15-B2D5AFE72D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$B$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$B$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TIPO PLACA</t>
   </si>
@@ -47,21 +48,12 @@
     <t>1 - OFERTA</t>
   </si>
   <si>
-    <t>5 - SINALIZAÇÃO SIMPLES</t>
-  </si>
-  <si>
     <t>FORNECEDOR</t>
   </si>
   <si>
-    <t>ESPECIFICAÇÃO</t>
-  </si>
-  <si>
     <t>REF.</t>
   </si>
   <si>
-    <t>CÓD.BARRAS</t>
-  </si>
-  <si>
     <t>TAMANHO</t>
   </si>
   <si>
@@ -71,67 +63,12 @@
     <t xml:space="preserve">                                    </t>
   </si>
   <si>
-    <r>
-      <t>DATA:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Californian FB"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Californian FB"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">             /           /         </t>
-    </r>
-  </si>
-  <si>
     <t>SOLICITAÇÃO  PLACA  SINALIZAÇÃO</t>
   </si>
   <si>
-    <r>
-      <t>SOLICITANTE :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Californian FB"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Californian FB"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                                                          </t>
-    </r>
-  </si>
-  <si>
     <t>TIPO DE PLACA:</t>
   </si>
   <si>
-    <t>TAMANHO PLACA:</t>
-  </si>
-  <si>
     <t>C - MEIA FOLHA</t>
   </si>
   <si>
@@ -141,17 +78,47 @@
     <t>E - PORTA ETIQUETA</t>
   </si>
   <si>
-    <t>A - FOLHA HORIZONTAL</t>
-  </si>
-  <si>
-    <t>B - FOLHA RETRATO</t>
+    <t>TAMANHO DA FOLHA PLACA:</t>
+  </si>
+  <si>
+    <t>CÓDIGO BARRAS</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>A - HORIZONTAL</t>
+  </si>
+  <si>
+    <t>B - VERTICAL</t>
+  </si>
+  <si>
+    <t>5 - SINALIZ. SIMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   A - HORIZONTAL           B - VERTICAL                C - MEIA FOLHA</t>
+  </si>
+  <si>
+    <t>TAMANHO DA FOLHA DA PLACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D - 1/4 FOLHA          E - PORTA ETIQUETA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             (GONDOLA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLICITANTE :                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DATA:                /           /          </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,14 +133,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Californian FB"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -210,22 +169,6 @@
       <color theme="1"/>
       <name val="Californian FB"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -318,36 +261,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,6 +335,261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2124076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EE712A-1634-E586-FEBE-A3466BD6C620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="1108307"/>
+          <a:ext cx="790576" cy="1063393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4B48E4-12A5-3512-CEC4-612C8433716D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7484250" y="1092975"/>
+          <a:ext cx="1059675" cy="764400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3688834</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>187841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>926585</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>183635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8E9901-3D3B-F019-BC67-B2D95E4D7EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11325225" y="1114425"/>
+          <a:ext cx="757794" cy="1076326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2588401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3493193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0A0D8C-C3EB-B091-B6AF-FB585F9A18D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10065526" y="1133475"/>
+          <a:ext cx="904792" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52081BA1-904A-21A2-880F-28A1350C942F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="1092435"/>
+          <a:ext cx="981075" cy="1098316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,314 +854,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="M16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="M18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="M19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+    </row>
+    <row r="20" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>